--- a/outcome/simulate data/B_Typhus.xlsx
+++ b/outcome/simulate data/B_Typhus.xlsx
@@ -412,19 +412,19 @@
         <v>44713</v>
       </c>
       <c r="B2" t="n">
-        <v>75.1513472318261</v>
+        <v>114.18147901197</v>
       </c>
       <c r="C2" t="n">
-        <v>35.6920599880624</v>
+        <v>64.9134002265665</v>
       </c>
       <c r="D2" t="n">
-        <v>24.0653643140357</v>
+        <v>48.1394213807489</v>
       </c>
       <c r="E2" t="n">
-        <v>158.234772457724</v>
+        <v>200.843124899582</v>
       </c>
       <c r="F2" t="n">
-        <v>234.682713174824</v>
+        <v>270.826066774757</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>44713</v>
@@ -450,19 +450,19 @@
         <v>44743</v>
       </c>
       <c r="B3" t="n">
-        <v>84.779625675338</v>
+        <v>125.565271962204</v>
       </c>
       <c r="C3" t="n">
-        <v>39.9960060749818</v>
+        <v>70.7910532877626</v>
       </c>
       <c r="D3" t="n">
-        <v>26.8718238031671</v>
+        <v>52.2664915852082</v>
       </c>
       <c r="E3" t="n">
-        <v>179.707566704926</v>
+        <v>222.720764710922</v>
       </c>
       <c r="F3" t="n">
-        <v>267.476632114687</v>
+        <v>301.658616156364</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>44743</v>
@@ -488,19 +488,19 @@
         <v>44774</v>
       </c>
       <c r="B4" t="n">
-        <v>90.9043876823098</v>
+        <v>139.768232428106</v>
       </c>
       <c r="C4" t="n">
-        <v>42.6015087489657</v>
+        <v>78.1519154103923</v>
       </c>
       <c r="D4" t="n">
-        <v>28.5218881611218</v>
+        <v>57.4500872205108</v>
       </c>
       <c r="E4" t="n">
-        <v>193.974531479388</v>
+        <v>249.963915708192</v>
       </c>
       <c r="F4" t="n">
-        <v>289.728634135793</v>
+        <v>340.037060711417</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>44774</v>
@@ -526,19 +526,19 @@
         <v>44805</v>
       </c>
       <c r="B5" t="n">
-        <v>83.1119604493296</v>
+        <v>129.816857732895</v>
       </c>
       <c r="C5" t="n">
-        <v>38.6939205457014</v>
+        <v>72.0003424913824</v>
       </c>
       <c r="D5" t="n">
-        <v>25.8155597228835</v>
+        <v>52.7009185779904</v>
       </c>
       <c r="E5" t="n">
-        <v>178.518947480971</v>
+        <v>234.060227611551</v>
       </c>
       <c r="F5" t="n">
-        <v>267.5749836099</v>
+        <v>319.774626446089</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>44805</v>
@@ -564,19 +564,19 @@
         <v>44835</v>
       </c>
       <c r="B6" t="n">
-        <v>112.409398327004</v>
+        <v>170.877832749692</v>
       </c>
       <c r="C6" t="n">
-        <v>51.9929382214488</v>
+        <v>94.0176666804869</v>
       </c>
       <c r="D6" t="n">
-        <v>34.5685453344974</v>
+        <v>68.5253140640282</v>
       </c>
       <c r="E6" t="n">
-        <v>243.030558850514</v>
+        <v>310.571776094631</v>
       </c>
       <c r="F6" t="n">
-        <v>365.530938891695</v>
+        <v>426.108717983384</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>44835</v>
@@ -602,19 +602,19 @@
         <v>44866</v>
       </c>
       <c r="B7" t="n">
-        <v>79.1244182846001</v>
+        <v>127.606375104105</v>
       </c>
       <c r="C7" t="n">
-        <v>36.3611540845876</v>
+        <v>69.6566264057031</v>
       </c>
       <c r="D7" t="n">
-        <v>24.0926426329718</v>
+        <v>50.5575854345915</v>
       </c>
       <c r="E7" t="n">
-        <v>172.180276630165</v>
+        <v>233.766517378688</v>
       </c>
       <c r="F7" t="n">
-        <v>259.858317090893</v>
+        <v>322.076041156595</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>44866</v>
@@ -640,19 +640,19 @@
         <v>44896</v>
       </c>
       <c r="B8" t="n">
-        <v>46.8405820041719</v>
+        <v>67.3280034623394</v>
       </c>
       <c r="C8" t="n">
-        <v>21.3873559705508</v>
+        <v>36.4666941917873</v>
       </c>
       <c r="D8" t="n">
-        <v>14.12295957553</v>
+        <v>26.3588245474749</v>
       </c>
       <c r="E8" t="n">
-        <v>102.585851449362</v>
+        <v>124.306854533737</v>
       </c>
       <c r="F8" t="n">
-        <v>155.352715608634</v>
+        <v>171.975045475199</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>44896</v>
@@ -678,19 +678,19 @@
         <v>44927</v>
       </c>
       <c r="B9" t="n">
-        <v>36.3679200740028</v>
+        <v>56.8992613560842</v>
       </c>
       <c r="C9" t="n">
-        <v>16.4999533428294</v>
+        <v>30.5816196297696</v>
       </c>
       <c r="D9" t="n">
-        <v>10.8588713239645</v>
+        <v>22.0149870770469</v>
       </c>
       <c r="E9" t="n">
-        <v>80.1593545768324</v>
+        <v>105.865090929207</v>
       </c>
       <c r="F9" t="n">
-        <v>121.801389025593</v>
+        <v>147.060088272478</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>44927</v>
@@ -716,19 +716,19 @@
         <v>44958</v>
       </c>
       <c r="B10" t="n">
-        <v>35.3918796504052</v>
+        <v>46.1842314183645</v>
       </c>
       <c r="C10" t="n">
-        <v>15.9557985864029</v>
+        <v>24.6343894483024</v>
       </c>
       <c r="D10" t="n">
-        <v>10.4656234765273</v>
+        <v>17.6624028405359</v>
       </c>
       <c r="E10" t="n">
-        <v>78.5034442748725</v>
+        <v>86.5855935330292</v>
       </c>
       <c r="F10" t="n">
-        <v>119.685668799199</v>
+        <v>120.764046147208</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>44958</v>
@@ -754,19 +754,19 @@
         <v>44986</v>
       </c>
       <c r="B11" t="n">
-        <v>41.4186226859973</v>
+        <v>59.2683909325179</v>
       </c>
       <c r="C11" t="n">
-        <v>18.5558972970269</v>
+        <v>31.3765369332362</v>
       </c>
       <c r="D11" t="n">
-        <v>12.1306502633486</v>
+        <v>22.4070128690096</v>
       </c>
       <c r="E11" t="n">
-        <v>92.4505173608542</v>
+        <v>111.954425410436</v>
       </c>
       <c r="F11" t="n">
-        <v>141.418824874394</v>
+        <v>156.769765977513</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>44986</v>
@@ -792,19 +792,19 @@
         <v>45017</v>
       </c>
       <c r="B12" t="n">
-        <v>48.4184866114687</v>
+        <v>72.1164923904627</v>
       </c>
       <c r="C12" t="n">
-        <v>21.5570411316771</v>
+        <v>37.8955687337057</v>
       </c>
       <c r="D12" t="n">
-        <v>14.0461579860482</v>
+        <v>26.9561934743515</v>
       </c>
       <c r="E12" t="n">
-        <v>108.751003044664</v>
+        <v>137.240016405346</v>
       </c>
       <c r="F12" t="n">
-        <v>166.903280461004</v>
+        <v>192.934825150746</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>45017</v>
@@ -830,19 +830,19 @@
         <v>45047</v>
       </c>
       <c r="B13" t="n">
-        <v>69.9686445679069</v>
+        <v>109.365277581982</v>
       </c>
       <c r="C13" t="n">
-        <v>30.9594195977458</v>
+        <v>57.0482230605047</v>
       </c>
       <c r="D13" t="n">
-        <v>20.1065683790863</v>
+        <v>40.4224797929049</v>
       </c>
       <c r="E13" t="n">
-        <v>158.129941913593</v>
+        <v>209.660587112389</v>
       </c>
       <c r="F13" t="n">
-        <v>243.483180738203</v>
+        <v>295.893869002153</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>45047</v>
@@ -868,19 +868,19 @@
         <v>45078</v>
       </c>
       <c r="B14" t="n">
-        <v>75.1513472318261</v>
+        <v>114.18147901197</v>
       </c>
       <c r="C14" t="n">
-        <v>33.0488886561579</v>
+        <v>59.1293063960256</v>
       </c>
       <c r="D14" t="n">
-        <v>21.3938518429063</v>
+        <v>41.7362257590755</v>
       </c>
       <c r="E14" t="n">
-        <v>170.890012354657</v>
+        <v>220.489820429167</v>
       </c>
       <c r="F14" t="n">
-        <v>263.988225786988</v>
+        <v>312.376356803799</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>45078</v>
@@ -906,19 +906,19 @@
         <v>45108</v>
       </c>
       <c r="B15" t="n">
-        <v>84.779625675338</v>
+        <v>125.565271962204</v>
       </c>
       <c r="C15" t="n">
-        <v>37.0562291295614</v>
+        <v>64.5588199631709</v>
       </c>
       <c r="D15" t="n">
-        <v>23.910592098487</v>
+        <v>45.3956012598409</v>
       </c>
       <c r="E15" t="n">
-        <v>193.964283427764</v>
+        <v>244.221278083097</v>
       </c>
       <c r="F15" t="n">
-        <v>300.602548863908</v>
+        <v>347.316415806349</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>45108</v>
@@ -944,19 +944,19 @@
         <v>45139</v>
       </c>
       <c r="B16" t="n">
-        <v>90.9043876823098</v>
+        <v>139.768232428106</v>
       </c>
       <c r="C16" t="n">
-        <v>39.4932338595811</v>
+        <v>71.3521056990512</v>
       </c>
       <c r="D16" t="n">
-        <v>25.4014537740178</v>
+        <v>49.9839349709263</v>
       </c>
       <c r="E16" t="n">
-        <v>209.241100115454</v>
+        <v>273.785315859807</v>
       </c>
       <c r="F16" t="n">
-        <v>325.320266052969</v>
+        <v>390.828749425988</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>45139</v>
@@ -982,19 +982,19 @@
         <v>45170</v>
       </c>
       <c r="B17" t="n">
-        <v>83.1119604493296</v>
+        <v>129.816857732895</v>
       </c>
       <c r="C17" t="n">
-        <v>35.8911673277905</v>
+        <v>65.8072896312759</v>
       </c>
       <c r="D17" t="n">
-        <v>23.0112282645524</v>
+        <v>45.928283688292</v>
       </c>
       <c r="E17" t="n">
-        <v>192.459551583946</v>
+        <v>256.087382508355</v>
       </c>
       <c r="F17" t="n">
-        <v>300.1838011564</v>
+        <v>366.928942218205</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>45170</v>
@@ -1020,19 +1020,19 @@
         <v>45200</v>
       </c>
       <c r="B18" t="n">
-        <v>112.409398327004</v>
+        <v>170.877832749692</v>
       </c>
       <c r="C18" t="n">
-        <v>48.2536959065431</v>
+        <v>86.0210116740164</v>
       </c>
       <c r="D18" t="n">
-        <v>30.8395838471643</v>
+        <v>59.8149715014909</v>
       </c>
       <c r="E18" t="n">
-        <v>261.863316267254</v>
+        <v>339.443040217717</v>
       </c>
       <c r="F18" t="n">
-        <v>409.72903184622</v>
+        <v>488.159285079724</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>45200</v>
@@ -1058,19 +1058,19 @@
         <v>45231</v>
       </c>
       <c r="B19" t="n">
-        <v>79.1244182846001</v>
+        <v>127.606375104105</v>
       </c>
       <c r="C19" t="n">
-        <v>33.7644528497993</v>
+        <v>63.7965907955504</v>
       </c>
       <c r="D19" t="n">
-        <v>21.511590513399</v>
+        <v>44.1995701933037</v>
       </c>
       <c r="E19" t="n">
-        <v>185.422035320011</v>
+        <v>255.239139962715</v>
       </c>
       <c r="F19" t="n">
-        <v>291.037223164728</v>
+        <v>368.406002501728</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>45231</v>
@@ -1096,19 +1096,19 @@
         <v>45261</v>
       </c>
       <c r="B20" t="n">
-        <v>46.8405820041719</v>
+        <v>67.3280034623394</v>
       </c>
       <c r="C20" t="n">
-        <v>19.870539517802</v>
+        <v>33.4315561493074</v>
       </c>
       <c r="D20" t="n">
-        <v>12.6202025341548</v>
+        <v>23.0785219760058</v>
       </c>
       <c r="E20" t="n">
-        <v>110.416736320819</v>
+        <v>135.592253916624</v>
       </c>
       <c r="F20" t="n">
-        <v>173.851419305807</v>
+        <v>196.418993163327</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>45261</v>
@@ -1134,19 +1134,19 @@
         <v>45292</v>
       </c>
       <c r="B21" t="n">
-        <v>36.3679200740028</v>
+        <v>56.8992613560842</v>
       </c>
       <c r="C21" t="n">
-        <v>15.3377143848793</v>
+        <v>28.0628557523289</v>
       </c>
       <c r="D21" t="n">
-        <v>9.71113445997459</v>
+        <v>19.3031968505235</v>
       </c>
       <c r="E21" t="n">
-        <v>86.2335532739461</v>
+        <v>115.366945240393</v>
       </c>
       <c r="F21" t="n">
-        <v>136.196817782762</v>
+        <v>167.719677105203</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>45292</v>
@@ -1172,19 +1172,19 @@
         <v>45323</v>
       </c>
       <c r="B22" t="n">
-        <v>35.3918796504052</v>
+        <v>46.1842314183645</v>
       </c>
       <c r="C22" t="n">
-        <v>14.8394189385351</v>
+        <v>22.6261751144317</v>
       </c>
       <c r="D22" t="n">
-        <v>9.36671896976846</v>
+        <v>15.508479380579</v>
       </c>
       <c r="E22" t="n">
-        <v>84.4093121420034</v>
+        <v>94.2706056555075</v>
       </c>
       <c r="F22" t="n">
-        <v>133.727204716139</v>
+        <v>137.53658107681</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>45323</v>
@@ -1210,19 +1210,19 @@
         <v>45352</v>
       </c>
       <c r="B23" t="n">
-        <v>41.4186226859973</v>
+        <v>59.2683909325179</v>
       </c>
       <c r="C23" t="n">
-        <v>17.2661678784036</v>
+        <v>28.8442852272761</v>
       </c>
       <c r="D23" t="n">
-        <v>10.8651636621366</v>
+        <v>19.7012082746428</v>
       </c>
       <c r="E23" t="n">
-        <v>99.3562854992713</v>
+        <v>121.782950627877</v>
       </c>
       <c r="F23" t="n">
-        <v>157.890148602479</v>
+        <v>178.3008491033</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>45352</v>
@@ -1248,19 +1248,19 @@
         <v>45383</v>
       </c>
       <c r="B24" t="n">
-        <v>48.4184866114687</v>
+        <v>72.1164923904627</v>
       </c>
       <c r="C24" t="n">
-        <v>20.068466838973</v>
+        <v>34.8671744138967</v>
       </c>
       <c r="D24" t="n">
-        <v>12.5901964337175</v>
+        <v>23.7322416340539</v>
       </c>
       <c r="E24" t="n">
-        <v>116.817585745626</v>
+        <v>149.160021198358</v>
       </c>
       <c r="F24" t="n">
-        <v>186.204389906629</v>
+        <v>219.144426173419</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>45383</v>
@@ -1286,19 +1286,19 @@
         <v>45413</v>
       </c>
       <c r="B25" t="n">
-        <v>69.9686445679069</v>
+        <v>109.365277581982</v>
       </c>
       <c r="C25" t="n">
-        <v>28.835298914827</v>
+        <v>52.5330624088989</v>
       </c>
       <c r="D25" t="n">
-        <v>18.0355289503298</v>
+        <v>35.63339457863</v>
       </c>
       <c r="E25" t="n">
-        <v>169.778410729524</v>
+        <v>227.680690828294</v>
       </c>
       <c r="F25" t="n">
-        <v>271.442619517992</v>
+        <v>335.661647789152</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>45413</v>
@@ -1324,19 +1324,19 @@
         <v>45444</v>
       </c>
       <c r="B26" t="n">
-        <v>75.1513472318261</v>
+        <v>114.18147901197</v>
       </c>
       <c r="C26" t="n">
-        <v>30.7957524278971</v>
+        <v>54.4935289776385</v>
       </c>
       <c r="D26" t="n">
-        <v>19.2038949860706</v>
+        <v>36.8370691445005</v>
       </c>
       <c r="E26" t="n">
-        <v>183.392985899002</v>
+        <v>239.246941682026</v>
       </c>
       <c r="F26" t="n">
-        <v>294.092682492538</v>
+        <v>353.920940295741</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>45444</v>
@@ -1362,19 +1362,19 @@
         <v>45474</v>
       </c>
       <c r="B27" t="n">
-        <v>84.779625675338</v>
+        <v>125.565271962204</v>
       </c>
       <c r="C27" t="n">
-        <v>34.545648485501</v>
+        <v>59.5441478778578</v>
       </c>
       <c r="D27" t="n">
-        <v>21.4779951140152</v>
+        <v>40.1150854842869</v>
       </c>
       <c r="E27" t="n">
-        <v>208.060500953314</v>
+        <v>264.789036116262</v>
       </c>
       <c r="F27" t="n">
-        <v>334.648783161342</v>
+        <v>393.035122139224</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>45474</v>
@@ -1400,19 +1400,19 @@
         <v>45505</v>
       </c>
       <c r="B28" t="n">
-        <v>90.9043876823098</v>
+        <v>139.768232428106</v>
       </c>
       <c r="C28" t="n">
-        <v>36.8340084460048</v>
+        <v>65.8600314275151</v>
       </c>
       <c r="D28" t="n">
-        <v>22.8327868992185</v>
+        <v>44.2213085146265</v>
       </c>
       <c r="E28" t="n">
-        <v>224.347228241785</v>
+        <v>296.616299334404</v>
       </c>
       <c r="F28" t="n">
-        <v>361.918487496527</v>
+        <v>441.758949525785</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>45505</v>
@@ -1438,19 +1438,19 @@
         <v>45536</v>
       </c>
       <c r="B29" t="n">
-        <v>83.1119604493296</v>
+        <v>129.816857732895</v>
       </c>
       <c r="C29" t="n">
-        <v>33.4891523410722</v>
+        <v>60.7871136108576</v>
       </c>
       <c r="D29" t="n">
-        <v>20.6981326953121</v>
+        <v>40.6793868489887</v>
       </c>
       <c r="E29" t="n">
-        <v>206.263744730834</v>
+        <v>277.236663341628</v>
       </c>
       <c r="F29" t="n">
-        <v>333.730490156507</v>
+        <v>414.27410433207</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>45536</v>
@@ -1476,19 +1476,19 @@
         <v>45566</v>
       </c>
       <c r="B30" t="n">
-        <v>112.409398327004</v>
+        <v>170.877832749692</v>
       </c>
       <c r="C30" t="n">
-        <v>45.0436619615916</v>
+        <v>79.5161981486744</v>
       </c>
       <c r="D30" t="n">
-        <v>27.7578073819183</v>
+        <v>53.0375684661302</v>
       </c>
       <c r="E30" t="n">
-        <v>280.524990241989</v>
+        <v>367.211139428937</v>
       </c>
       <c r="F30" t="n">
-        <v>455.218694271584</v>
+        <v>550.538694922986</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>45566</v>
@@ -1514,19 +1514,19 @@
         <v>45597</v>
       </c>
       <c r="B31" t="n">
-        <v>79.1244182846001</v>
+        <v>127.606375104105</v>
       </c>
       <c r="C31" t="n">
-        <v>31.5315798887245</v>
+        <v>59.0138079270554</v>
       </c>
       <c r="D31" t="n">
-        <v>19.3744286481236</v>
+        <v>39.2336190772034</v>
       </c>
       <c r="E31" t="n">
-        <v>198.552485824382</v>
+        <v>275.92503414348</v>
       </c>
       <c r="F31" t="n">
-        <v>323.141068187459</v>
+        <v>415.036577053147</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>45597</v>
@@ -1552,19 +1552,19 @@
         <v>45627</v>
       </c>
       <c r="B32" t="n">
-        <v>46.8405820041719</v>
+        <v>67.3280034623394</v>
       </c>
       <c r="C32" t="n">
-        <v>18.5641499757372</v>
+        <v>30.9463762909214</v>
       </c>
       <c r="D32" t="n">
-        <v>11.3735768392471</v>
+        <v>20.5070222855821</v>
       </c>
       <c r="E32" t="n">
-        <v>118.186942324701</v>
+        <v>146.481126178079</v>
       </c>
       <c r="F32" t="n">
-        <v>192.906783283736</v>
+        <v>221.049159994908</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>45627</v>
@@ -1590,19 +1590,19 @@
         <v>45658</v>
       </c>
       <c r="B33" t="n">
-        <v>36.3679200740028</v>
+        <v>56.8992613560842</v>
       </c>
       <c r="C33" t="n">
-        <v>14.3351435383631</v>
+        <v>25.9940770495016</v>
       </c>
       <c r="D33" t="n">
-        <v>8.75729264554833</v>
+        <v>17.1698436557156</v>
       </c>
       <c r="E33" t="n">
-        <v>92.2645529826405</v>
+        <v>124.548601464196</v>
       </c>
       <c r="F33" t="n">
-        <v>151.031336286495</v>
+        <v>188.558848163434</v>
       </c>
       <c r="G33" s="1" t="n">
         <v>45658</v>
@@ -1628,19 +1628,19 @@
         <v>45689</v>
       </c>
       <c r="B34" t="n">
-        <v>35.3918796504052</v>
+        <v>46.1842314183645</v>
       </c>
       <c r="C34" t="n">
-        <v>13.8749359691262</v>
+        <v>20.9717960587527</v>
       </c>
       <c r="D34" t="n">
-        <v>8.45184444955138</v>
+        <v>13.8082141478539</v>
       </c>
       <c r="E34" t="n">
-        <v>90.2768234733448</v>
+        <v>101.707227446303</v>
       </c>
       <c r="F34" t="n">
-        <v>148.202579054239</v>
+        <v>154.472056188132</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>45689</v>
@@ -1666,19 +1666,19 @@
         <v>45717</v>
       </c>
       <c r="B35" t="n">
-        <v>41.4186226859973</v>
+        <v>59.2683909325179</v>
       </c>
       <c r="C35" t="n">
-        <v>16.1502610080164</v>
+        <v>26.7521771931902</v>
       </c>
       <c r="D35" t="n">
-        <v>9.80978518111274</v>
+        <v>17.5582624032375</v>
       </c>
       <c r="E35" t="n">
-        <v>106.221336259117</v>
+        <v>131.306776953613</v>
       </c>
       <c r="F35" t="n">
-        <v>174.876643426194</v>
+        <v>200.062060986289</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>45717</v>
@@ -1704,19 +1704,19 @@
         <v>45748</v>
       </c>
       <c r="B36" t="n">
-        <v>48.4184866114687</v>
+        <v>72.1164923904627</v>
       </c>
       <c r="C36" t="n">
-        <v>18.7786416553877</v>
+        <v>32.3581878229047</v>
       </c>
       <c r="D36" t="n">
-        <v>11.3739209910685</v>
+        <v>21.1708081841588</v>
       </c>
       <c r="E36" t="n">
-        <v>124.841289842301</v>
+        <v>160.725579045632</v>
       </c>
       <c r="F36" t="n">
-        <v>206.116241495427</v>
+        <v>245.658476023376</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>45748</v>
@@ -1742,19 +1742,19 @@
         <v>45778</v>
       </c>
       <c r="B37" t="n">
-        <v>69.9686445679069</v>
+        <v>109.365277581982</v>
       </c>
       <c r="C37" t="n">
-        <v>26.9921713088862</v>
+        <v>48.78223961559</v>
       </c>
       <c r="D37" t="n">
-        <v>16.3025844942489</v>
+        <v>31.8167579018332</v>
       </c>
       <c r="E37" t="n">
-        <v>181.371523122276</v>
+        <v>245.18685560229</v>
       </c>
       <c r="F37" t="n">
-        <v>300.296632377346</v>
+        <v>375.926547182697</v>
       </c>
       <c r="G37" s="1" t="n">
         <v>45778</v>
